--- a/tiyay.xlsx
+++ b/tiyay.xlsx
@@ -5,32 +5,47 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandra Vilchez\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandra Vilchez\Downloads\conjugador\conjugador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB4A09E-E5C1-4799-9B66-89AA3979A266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DF98F4-2716-4592-9948-ABABEAA6AA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" firstSheet="4" activeTab="5" xr2:uid="{E93F29BC-6FDB-4E91-AECB-1231192FA09E}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" firstSheet="8" activeTab="8" xr2:uid="{E93F29BC-6FDB-4E91-AECB-1231192FA09E}"/>
   </bookViews>
   <sheets>
     <sheet name="presente simple" sheetId="2" r:id="rId1"/>
     <sheet name="presente progresivo" sheetId="4" r:id="rId2"/>
     <sheet name="presente habitual" sheetId="5" r:id="rId3"/>
-    <sheet name="pasado experimentado" sheetId="1" r:id="rId4"/>
-    <sheet name="pasado no experimentado" sheetId="3" r:id="rId5"/>
-    <sheet name="pronombres" sheetId="6" r:id="rId6"/>
+    <sheet name="pasado experimentado simple" sheetId="1" r:id="rId4"/>
+    <sheet name="pasado experimentado progresivo" sheetId="7" r:id="rId5"/>
+    <sheet name="pasado experimentado habitual" sheetId="8" r:id="rId6"/>
+    <sheet name="pasado no experimentado simple" sheetId="3" r:id="rId7"/>
+    <sheet name="pasado no exp. progresivo" sheetId="9" r:id="rId8"/>
+    <sheet name="pasado no exp. habitual" sheetId="10" r:id="rId9"/>
+    <sheet name="pronombres" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="76">
   <si>
     <t>primera</t>
   </si>
@@ -86,9 +101,6 @@
     <t>rqa-nkichik</t>
   </si>
   <si>
-    <t>rqa-(n)k</t>
-  </si>
-  <si>
     <t>rqa-niku</t>
   </si>
   <si>
@@ -174,6 +186,93 @@
   </si>
   <si>
     <t>paykuna</t>
+  </si>
+  <si>
+    <t>chka-rqa-ni</t>
+  </si>
+  <si>
+    <t>chka-rqa-nki</t>
+  </si>
+  <si>
+    <t>chka-rqa-(n)</t>
+  </si>
+  <si>
+    <t>chka-rqa-nchik</t>
+  </si>
+  <si>
+    <t>chka-rqa-nkichik</t>
+  </si>
+  <si>
+    <t>rqa-(n)ku</t>
+  </si>
+  <si>
+    <t>chka-rqa-niku</t>
+  </si>
+  <si>
+    <t>chka-rqa-(n)ku</t>
+  </si>
+  <si>
+    <t>q ka-rqa-ni</t>
+  </si>
+  <si>
+    <t>q ka-rqa-nki</t>
+  </si>
+  <si>
+    <t>q ka-rqa-(n)</t>
+  </si>
+  <si>
+    <t>q ka-rqa-nchik</t>
+  </si>
+  <si>
+    <t>q ka-rqa-nkichik</t>
+  </si>
+  <si>
+    <t>q ka-rqa-(n)ku</t>
+  </si>
+  <si>
+    <t>q ka-rqa-niku</t>
+  </si>
+  <si>
+    <t>chka-sqa-ni</t>
+  </si>
+  <si>
+    <t>chka-sqa-(n)ku</t>
+  </si>
+  <si>
+    <t>chka-sqa-nki</t>
+  </si>
+  <si>
+    <t>chka-sqa-(n)</t>
+  </si>
+  <si>
+    <t>chka-sqa-nchik</t>
+  </si>
+  <si>
+    <t>chka-sqa-nkichik</t>
+  </si>
+  <si>
+    <t>chka-sqa-niku</t>
+  </si>
+  <si>
+    <t>q ka-sqa-ni</t>
+  </si>
+  <si>
+    <t>q ka-sqa-nki</t>
+  </si>
+  <si>
+    <t>q ka-sqa-(n)</t>
+  </si>
+  <si>
+    <t>q ka-sqa-nchik</t>
+  </si>
+  <si>
+    <t>q ka-sqa-nkichik</t>
+  </si>
+  <si>
+    <t>q ka-sqa-(n)k</t>
+  </si>
+  <si>
+    <t>q ka-sqa-niku</t>
   </si>
 </sst>
 </file>
@@ -587,6 +686,70 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FD22D4-AD82-4ED4-B4B3-1EDBED5C5246}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F20158-C55D-4996-B25C-19940174D63B}">
   <dimension ref="A1:C5"/>
@@ -610,10 +773,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -621,10 +784,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -632,10 +795,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -643,7 +806,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -674,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -685,10 +848,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -696,10 +859,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -707,7 +870,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -720,7 +883,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -763,7 +926,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -771,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -780,6 +943,137 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB12C27-CAED-4D5F-8ED8-76E7D067FA75}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6160ED6-8FA6-4B8F-A14E-19F47A1F987A}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F02832C-7285-4EEF-BAF0-B3D6FA11B103}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -802,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -813,10 +1107,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -824,10 +1118,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -835,7 +1129,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -843,12 +1137,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FD22D4-AD82-4ED4-B4B3-1EDBED5C5246}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B914B33-076E-49ED-AF6F-EAD05BBF70F7}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -866,10 +1160,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -877,10 +1171,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -888,10 +1182,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -899,7 +1193,71 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED1BAE4-955D-430C-8E76-6A14D761DB73}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/tiyay.xlsx
+++ b/tiyay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandra Vilchez\Downloads\conjugador\conjugador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DF98F4-2716-4592-9948-ABABEAA6AA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0681DE3-480F-430F-94AC-AA8738977045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" firstSheet="8" activeTab="8" xr2:uid="{E93F29BC-6FDB-4E91-AECB-1231192FA09E}"/>
+    <workbookView xWindow="4152" yWindow="4080" windowWidth="17280" windowHeight="8880" firstSheet="8" activeTab="9" xr2:uid="{E93F29BC-6FDB-4E91-AECB-1231192FA09E}"/>
   </bookViews>
   <sheets>
     <sheet name="presente simple" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="76">
   <si>
     <t>primera</t>
   </si>
@@ -296,7 +296,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -304,12 +304,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,23 +642,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7CCDF6-3649-4582-9B1E-A41462426B3F}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -650,8 +675,17 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -661,8 +695,17 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -672,12 +715,28 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -690,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FD22D4-AD82-4ED4-B4B3-1EDBED5C5246}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1205,7 +1264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED1BAE4-955D-430C-8E76-6A14D761DB73}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
